--- a/WitchInTheWoods/WitchInTheWoods/stage/StageCreator.xlsx
+++ b/WitchInTheWoods/WitchInTheWoods/stage/StageCreator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\sdl_game\WitchInTheWoods\WitchInTheWoods\stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094DE186-961D-4901-B742-B2580A9B9402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C4435-7E1D-4009-84F3-57788533B06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{43701BA3-1B26-48A9-BD31-74F4B65C1B58}"/>
+    <workbookView xWindow="-120" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{43701BA3-1B26-48A9-BD31-74F4B65C1B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -49,12 +49,15 @@
   <si>
     <t>T</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +67,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,14 +210,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -251,6 +243,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -273,7 +272,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1338700" cy="781240"/>
+    <xdr:ext cx="3517501" cy="1125693"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -287,8 +286,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="166687"/>
-          <a:ext cx="1338700" cy="781240"/>
+          <a:off x="3164032" y="166687"/>
+          <a:ext cx="3517501" cy="1125693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,74 +340,17 @@
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>T = Tree</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4053674" cy="436786"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5F36B3-273F-4D9A-A6D6-1FE4D8BD2495}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1057275" y="3286125"/>
-          <a:ext cx="4053674" cy="436786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>F18 and I18</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t> are spawning area for Player 1 and Player 2.</a:t>
+            <a:t>S = Enemy Spawning Position (Minimum of 1, Maximum of 8)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>It must be 'X' or 'T'. If it's not, character will be trapped into a blockade.</a:t>
+            <a:t>1, 2 = Player 1, 2 Spawning Position (Must have 1 of each)</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
@@ -420,8 +362,8 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76849</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3723007" cy="953466"/>
     <xdr:sp macro="" textlink="">
@@ -437,7 +379,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3181350" y="976313"/>
+          <a:off x="3144982" y="1327006"/>
           <a:ext cx="3723007" cy="953466"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -833,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DE4783-F5CD-4EBC-AC71-C00F574D80C6}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="250" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -856,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>0</v>
@@ -871,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
@@ -1152,7 +1094,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -1166,7 +1108,7 @@
       <c r="E8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1175,8 +1117,8 @@
       <c r="H8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>1</v>
+      <c r="I8" s="4">
+        <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>0</v>
@@ -1191,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
@@ -1372,7 +1314,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>0</v>
@@ -1411,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
@@ -1604,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>0</v>
@@ -1615,11 +1557,11 @@
       <c r="H18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>0</v>
@@ -1636,16 +1578,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:N18">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="T">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="S">
+      <formula>NOT(ISERROR(SEARCH("S",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="T">
       <formula>NOT(ISERROR(SEARCH("T",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="W">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="W">
       <formula>NOT(ISERROR(SEARCH("W",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="E">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="E">
       <formula>NOT(ISERROR(SEARCH("E",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="X">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="X">
       <formula>NOT(ISERROR(SEARCH("X",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
